--- a/docs/StructureDefinition-bundle.xlsx
+++ b/docs/StructureDefinition-bundle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2014" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2014" uniqueCount="304">
   <si>
     <t>Property</t>
   </si>
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://roadxcore.com/fhir/v1/StructureDefinition/bundle</t>
+    <t>https://www.sehatuk.ae/uae-fhir/r4/StructureDefinition/bundle</t>
   </si>
   <si>
     <t>Version</t>
@@ -39,13 +39,13 @@
     <t>Name</t>
   </si>
   <si>
-    <t>RoadxCoreBundle</t>
+    <t>SehatukCoreBundle</t>
   </si>
   <si>
     <t>Title</t>
   </si>
   <si>
-    <t xml:space="preserve">RoadxCore  Bundle </t>
+    <t xml:space="preserve">SehatukCore  Bundle </t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-19T11:55:47+04:00</t>
+    <t>2022-11-19T09:21:48+04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>RoadxCore Bundle Profile</t>
+    <t>SehatukCore Bundle Profile</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -246,10 +246,6 @@
     <t>A container for a collection of resources.</t>
   </si>
   <si>
-    <t>bdl-1:total only when a search or history {total.empty() or (type = 'searchset') or (type = 'history')}
-bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}valid-resource-id-uuid:Must be a valid uuid {$this.id.exists() and $this.id.matches('^[0-9a-f]{8}-[0-9a-f]{4}-[0-9a-f]{4}-[0-9a-f]{4}-[0-9a-f]{12}$')}valid-focus-for-medication:Focus Resource should be a medication request when eventCode equals medication-order {entry.first().resource.eventCoding.code='medication-order' implies entry.first().resource.focus.all(resolve() is MedicationRequest)}valid-focus-for-medication-dispense:Focus Resource should be a medication dispense when eventCode equals medication-order-dispense {entry.first().resource.eventCoding.code='medication-order-dispense' implies entry.first().resource.focus.all(resolve() is MedicationDispense)}valid-focus-for-medication-download:Focus Resource should be a medication download when eventCode equals medication-order-download {entry.first().resource.eventCoding.code='medication-order-download' implies entry.first().resource.focus.all(resolve() is Task)}valid-focus-for-medication-release:Focus Resource should be a medication release when eventCode equals medication-order-release {entry.first().resource.eventCoding.code='medication-order-release' implies entry.first().resource.focus.all(resolve() is Task)}valid-focus-for-medication-cancel:Focus Resource should be a medication cancel when eventCode equals medication-order-cancel {entry.first().resource.eventCoding.code='medication-order-cancel'  implies entry.first().resource.focus.all(resolve() is Task)}valid-focus-for-medication-lock:Focus Resource should be a medication lock when eventCode equals medication-order-lock {entry.first().resource.eventCoding.code='medication-order-lock' implies entry.first().resource.focus.all(resolve() is Task)}distinct-message-header-focus:Focus references should be unique {entry.first().resource.focus.isDistinct()}</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -263,47 +259,51 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Bundle.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Bundle.meta.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Bundle.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Bundle.meta.id</t>
-  </si>
-  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -354,10 +354,6 @@
   </si>
   <si>
     <t>Bundle.meta.versionId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id
-</t>
   </si>
   <si>
     <t>Version specific identifier</t>
@@ -725,10 +721,6 @@
   <si>
     <t>fullUrl might not be [unique in the context of a resource](http://hl7.org/fhir/R4/bundle.html#bundle-unique). Note that since [FHIR resources do not need to be served through the FHIR API](http://hl7.org/fhir/R4/references.html), the fullURL might be a URN or an absolute URL that does not end with the logical id of the resource (Resource.id). However, but if the fullUrl does look like a RESTful server URL (e.g. meets the [regex](http://hl7.org/fhir/R4/references.html#regex), then the 'id' portion of the fullUrl SHALL end with the Resource.id.
 Note that the fullUrl is not the same as the canonical URL - it's an absolute url for an endpoint serving the resource (these will happen to have the same value on the canonical server for the resource with the canonical URL).</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-valid-uuid-uri:URI should be valid uri starting with urn:uuid: prefix {$this.matches('^urn:uuid:[0-9a-f]{8}-[0-9a-f]{4}-[0-9a-f]{4}-[0-9a-f]{4}-[0-9a-f]{12}$')}</t>
   </si>
   <si>
     <t>Bundle.entry.resource</t>
@@ -1287,17 +1279,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37.640625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.6328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="37.6171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.3515625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.1484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.07421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.06640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="103.66015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="103.6640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1306,26 +1298,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.13671875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.9609375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="162.69140625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="50.01171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.84375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.6640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="29" max="29" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="33.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="25.74609375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="41.66015625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="25.75" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.6796875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="41.6640625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1541,16 +1533,16 @@
         <v>71</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL2" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>71</v>
@@ -1558,7 +1550,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1566,31 +1558,31 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G3" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="H3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1640,13 +1632,13 @@
         <v>71</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>71</v>
@@ -1669,7 +1661,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1677,28 +1669,28 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G4" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F4" t="s" s="2">
+      <c r="H4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1749,19 +1741,19 @@
         <v>71</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>71</v>
@@ -1778,7 +1770,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1789,7 +1781,7 @@
         <v>72</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>71</v>
@@ -1801,7 +1793,7 @@
         <v>71</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>94</v>
@@ -1864,7 +1856,7 @@
         <v>72</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>71</v>
@@ -2009,28 +2001,28 @@
         <v>72</v>
       </c>
       <c r="F7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I7" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G7" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I7" t="s" s="2">
+      <c r="J7" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="J7" t="s" s="2">
+      <c r="K7" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2080,19 +2072,19 @@
         <v>71</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>71</v>
@@ -2109,7 +2101,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -2120,28 +2112,28 @@
         <v>72</v>
       </c>
       <c r="F8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I8" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G8" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J8" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2191,19 +2183,19 @@
         <v>71</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>71</v>
@@ -2220,7 +2212,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2231,28 +2223,28 @@
         <v>72</v>
       </c>
       <c r="F9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I9" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G9" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J9" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2302,19 +2294,19 @@
         <v>71</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>71</v>
@@ -2331,7 +2323,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -2339,31 +2331,31 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>71</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2413,7 +2405,7 @@
         <v>71</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>72</v>
@@ -2425,7 +2417,7 @@
         <v>71</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>71</v>
@@ -2442,7 +2434,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2462,19 +2454,19 @@
         <v>71</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -2500,31 +2492,31 @@
         <v>71</v>
       </c>
       <c r="W11" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="X11" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="X11" t="s" s="2">
+      <c r="Y11" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="Z11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE11" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>72</v>
@@ -2536,7 +2528,7 @@
         <v>71</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>71</v>
@@ -2553,7 +2545,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2573,19 +2565,19 @@
         <v>71</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2611,31 +2603,31 @@
         <v>71</v>
       </c>
       <c r="W12" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="X12" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="X12" t="s" s="2">
+      <c r="Y12" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE12" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>72</v>
@@ -2647,7 +2639,7 @@
         <v>71</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>71</v>
@@ -2664,7 +2656,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2675,28 +2667,28 @@
         <v>72</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H13" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="I13" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2746,19 +2738,19 @@
         <v>71</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>71</v>
@@ -2775,7 +2767,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2786,7 +2778,7 @@
         <v>72</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>71</v>
@@ -2798,16 +2790,16 @@
         <v>71</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2833,43 +2825,43 @@
         <v>71</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="AF14" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>71</v>
@@ -2886,7 +2878,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2906,19 +2898,19 @@
         <v>71</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2968,19 +2960,19 @@
         <v>71</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>71</v>
@@ -2989,15 +2981,15 @@
         <v>71</v>
       </c>
       <c r="AL15" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>170</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3005,31 +2997,31 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G16" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="H16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J16" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3037,78 +3029,78 @@
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="R16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W16" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="R16" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S16" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T16" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W16" t="s" s="2">
+      <c r="X16" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="X16" t="s" s="2">
+      <c r="Y16" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>179</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3116,31 +3108,31 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G17" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="H17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J17" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3190,19 +3182,19 @@
         <v>71</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>71</v>
@@ -3211,15 +3203,15 @@
         <v>71</v>
       </c>
       <c r="AL17" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>185</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3230,28 +3222,28 @@
         <v>72</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J18" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3301,19 +3293,19 @@
         <v>71</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>71</v>
@@ -3330,7 +3322,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3350,19 +3342,19 @@
         <v>71</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3412,7 +3404,7 @@
         <v>71</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>72</v>
@@ -3424,7 +3416,7 @@
         <v>71</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>71</v>
@@ -3441,7 +3433,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3452,7 +3444,7 @@
         <v>72</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>71</v>
@@ -3464,7 +3456,7 @@
         <v>71</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>94</v>
@@ -3527,7 +3519,7 @@
         <v>72</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>71</v>
@@ -3550,7 +3542,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3661,11 +3653,11 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3678,25 +3670,25 @@
         <v>71</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>100</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="M22" t="s" s="2">
         <v>103</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>71</v>
@@ -3745,7 +3737,7 @@
         <v>71</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>72</v>
@@ -3763,7 +3755,7 @@
         <v>71</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>71</v>
@@ -3774,7 +3766,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3782,28 +3774,28 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G23" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J23" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3854,19 +3846,19 @@
         <v>71</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>71</v>
@@ -3883,7 +3875,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3891,28 +3883,28 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G24" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J24" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3963,19 +3955,19 @@
         <v>71</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>71</v>
@@ -3992,7 +3984,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4000,28 +3992,28 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>71</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4072,7 +4064,7 @@
         <v>71</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>72</v>
@@ -4084,7 +4076,7 @@
         <v>71</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>71</v>
@@ -4101,7 +4093,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4112,7 +4104,7 @@
         <v>72</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>71</v>
@@ -4124,7 +4116,7 @@
         <v>71</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>94</v>
@@ -4187,7 +4179,7 @@
         <v>72</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>71</v>
@@ -4210,7 +4202,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4321,11 +4313,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4338,25 +4330,25 @@
         <v>71</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>100</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>103</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>71</v>
@@ -4405,7 +4397,7 @@
         <v>71</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>72</v>
@@ -4423,7 +4415,7 @@
         <v>71</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>71</v>
@@ -4434,7 +4426,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4454,16 +4446,16 @@
         <v>71</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>71</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4514,7 +4506,7 @@
         <v>71</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>72</v>
@@ -4526,7 +4518,7 @@
         <v>71</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>71</v>
@@ -4543,7 +4535,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4551,31 +4543,31 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G30" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="H30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I30" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J30" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4625,19 +4617,19 @@
         <v>71</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>225</v>
+        <v>91</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>71</v>
@@ -4654,7 +4646,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4665,25 +4657,25 @@
         <v>72</v>
       </c>
       <c r="F31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I31" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G31" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J31" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="K31" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4734,13 +4726,13 @@
         <v>71</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>71</v>
@@ -4763,7 +4755,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4774,25 +4766,25 @@
         <v>72</v>
       </c>
       <c r="F32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I32" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J32" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4843,19 +4835,19 @@
         <v>71</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>71</v>
@@ -4872,7 +4864,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4883,7 +4875,7 @@
         <v>72</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>71</v>
@@ -4895,7 +4887,7 @@
         <v>71</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>94</v>
@@ -4958,7 +4950,7 @@
         <v>72</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>71</v>
@@ -4981,7 +4973,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5092,11 +5084,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5109,25 +5101,25 @@
         <v>71</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>100</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>103</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>71</v>
@@ -5176,7 +5168,7 @@
         <v>71</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>72</v>
@@ -5194,7 +5186,7 @@
         <v>71</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>71</v>
@@ -5205,7 +5197,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5216,28 +5208,28 @@
         <v>72</v>
       </c>
       <c r="F36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J36" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5263,13 +5255,13 @@
         <v>71</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>71</v>
@@ -5287,19 +5279,19 @@
         <v>71</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>71</v>
@@ -5316,7 +5308,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5327,28 +5319,28 @@
         <v>72</v>
       </c>
       <c r="F37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J37" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5398,19 +5390,19 @@
         <v>71</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>71</v>
@@ -5427,7 +5419,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5438,25 +5430,25 @@
         <v>72</v>
       </c>
       <c r="F38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I38" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J38" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5507,19 +5499,19 @@
         <v>71</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>71</v>
@@ -5536,7 +5528,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5547,7 +5539,7 @@
         <v>72</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>71</v>
@@ -5559,7 +5551,7 @@
         <v>71</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>94</v>
@@ -5622,7 +5614,7 @@
         <v>72</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>71</v>
@@ -5645,7 +5637,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5756,11 +5748,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5773,25 +5765,25 @@
         <v>71</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>100</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>103</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>71</v>
@@ -5840,7 +5832,7 @@
         <v>71</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>72</v>
@@ -5858,7 +5850,7 @@
         <v>71</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>71</v>
@@ -5869,7 +5861,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5877,28 +5869,28 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I42" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J42" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5925,13 +5917,13 @@
         <v>71</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>71</v>
@@ -5949,19 +5941,19 @@
         <v>71</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>71</v>
@@ -5978,7 +5970,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5986,31 +5978,31 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I43" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J43" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6060,19 +6052,19 @@
         <v>71</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>71</v>
@@ -6089,7 +6081,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6100,25 +6092,25 @@
         <v>72</v>
       </c>
       <c r="F44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I44" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J44" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6169,19 +6161,19 @@
         <v>71</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>71</v>
@@ -6198,7 +6190,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6209,25 +6201,25 @@
         <v>72</v>
       </c>
       <c r="F45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I45" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G45" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J45" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6278,19 +6270,19 @@
         <v>71</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>71</v>
@@ -6307,7 +6299,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6318,25 +6310,25 @@
         <v>72</v>
       </c>
       <c r="F46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I46" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G46" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J46" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6387,19 +6379,19 @@
         <v>71</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>71</v>
@@ -6416,7 +6408,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6427,25 +6419,25 @@
         <v>72</v>
       </c>
       <c r="F47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I47" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J47" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6496,19 +6488,19 @@
         <v>71</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>71</v>
@@ -6525,7 +6517,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6536,25 +6528,25 @@
         <v>72</v>
       </c>
       <c r="F48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I48" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J48" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6605,19 +6597,19 @@
         <v>71</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>71</v>
@@ -6634,7 +6626,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6645,7 +6637,7 @@
         <v>72</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>71</v>
@@ -6657,7 +6649,7 @@
         <v>71</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>94</v>
@@ -6720,7 +6712,7 @@
         <v>72</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>71</v>
@@ -6743,7 +6735,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6854,11 +6846,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -6871,25 +6863,25 @@
         <v>71</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>100</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>103</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>71</v>
@@ -6938,7 +6930,7 @@
         <v>71</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>72</v>
@@ -6956,7 +6948,7 @@
         <v>71</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>71</v>
@@ -6967,7 +6959,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6975,28 +6967,28 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I52" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J52" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7047,19 +7039,19 @@
         <v>71</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>71</v>
@@ -7076,7 +7068,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7087,25 +7079,25 @@
         <v>72</v>
       </c>
       <c r="F53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I53" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G53" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J53" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7156,19 +7148,19 @@
         <v>71</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>71</v>
@@ -7185,7 +7177,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7196,28 +7188,28 @@
         <v>72</v>
       </c>
       <c r="F54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I54" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J54" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7267,19 +7259,19 @@
         <v>71</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>71</v>
@@ -7296,7 +7288,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7307,28 +7299,28 @@
         <v>72</v>
       </c>
       <c r="F55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I55" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J55" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7378,19 +7370,19 @@
         <v>71</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>71</v>
@@ -7407,7 +7399,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7418,28 +7410,28 @@
         <v>72</v>
       </c>
       <c r="F56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I56" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G56" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J56" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -7489,13 +7481,13 @@
         <v>71</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>71</v>
@@ -7518,7 +7510,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7529,31 +7521,31 @@
         <v>72</v>
       </c>
       <c r="F57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I57" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G57" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J57" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>71</v>
@@ -7602,19 +7594,19 @@
         <v>71</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>71</v>

--- a/docs/StructureDefinition-bundle.xlsx
+++ b/docs/StructureDefinition-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-19T09:21:48+04:00</t>
+    <t>2022-11-19T09:53:21+04:00</t>
   </si>
   <si>
     <t>Publisher</t>
